--- a/test_upload.xlsx
+++ b/test_upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhbaonguyen/Downloads/go-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE304F57-BF67-2841-97C8-0CE596462F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2436E8-D781-FA49-B053-D6A159114C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{9553992A-8F98-094F-9849-00AEAA0507E7}"/>
+    <workbookView xWindow="18520" yWindow="1800" windowWidth="14700" windowHeight="17440" xr2:uid="{9553992A-8F98-094F-9849-00AEAA0507E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>description</t>
   </si>
@@ -208,6 +208,135 @@
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
       <t>3 thứ</t>
+    </r>
+  </si>
+  <si>
+    <t>đây là chỗ có xuống dòng
+dòng 1
+dòng 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dòng 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dòng 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>dòng 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dòng 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dòng 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">dòng 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>dòng 4</t>
     </r>
   </si>
 </sst>
@@ -307,8 +436,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BAE912-A59D-4C4C-917C-824EF22A1725}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,6 +831,27 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_upload.xlsx
+++ b/test_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhbaonguyen/Downloads/go-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2436E8-D781-FA49-B053-D6A159114C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4694298-B3D2-A642-B7D3-B30C4E7DCCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18520" yWindow="1800" windowWidth="14700" windowHeight="17440" xr2:uid="{9553992A-8F98-094F-9849-00AEAA0507E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>description</t>
   </si>
@@ -337,6 +337,59 @@
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
       <t>dòng 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in đậm.    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, test.     này là </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in      nghiệm.   , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>underline</t>
     </r>
   </si>
 </sst>
@@ -777,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BAE912-A59D-4C4C-917C-824EF22A1725}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,7 +900,9 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>

--- a/test_upload.xlsx
+++ b/test_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhbaonguyen/Downloads/go-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4694298-B3D2-A642-B7D3-B30C4E7DCCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AB7B31-2FD5-5D48-B6CC-3B236DD86D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18520" yWindow="1800" windowWidth="14700" windowHeight="17440" xr2:uid="{9553992A-8F98-094F-9849-00AEAA0507E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>description</t>
   </si>
@@ -390,6 +390,34 @@
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
       <t>underline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>chỗ này là xuống 2 và</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dòng
+dòng 1
+dòng 2
+dòng 3</t>
     </r>
   </si>
 </sst>
@@ -831,7 +859,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,8 +932,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_upload.xlsx
+++ b/test_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhbaonguyen/Downloads/go-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AB7B31-2FD5-5D48-B6CC-3B236DD86D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1735AEB4-AC8E-554C-8DD0-5FE4C9F14530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18520" yWindow="1800" windowWidth="14700" windowHeight="17440" xr2:uid="{9553992A-8F98-094F-9849-00AEAA0507E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>description</t>
   </si>
@@ -419,6 +419,105 @@
 dòng 2
 dòng 3</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ข้อมูลสินค้าเพิ่มเติม
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>-100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Color 
+Volume Quantum Dot สีสวยสด 100%
+Quantum HDR เผยรายละเอียดที่ซ่อนอยุ่ในภาพ
+AirSlim ตัวเครื่องบาง  สวยงาม  ประหยัดพื้นที่
+Smart Hub คัดสรรคอนเทนต์บันเทิงรวมไว้ในที่เดียว
+คุณสมบัติเฉพาะ
+แบรนด์ : SAMSUNG
+ซีรีส์
+ : Q65C
+ความสูง ( ซม .) : 64.41
+ความกว้าง ( ซม .) : 111.83
+ความลึก ( ซม .) : 2.57
+น้ำหนัก ( กก .) : 10.7
+ขนาดหน้าจอ ( นิ้ว ) : 50"
+ความละเอียดหน้าจอ : 4K (3,840 x 2,160)
+ชนิดหน้าจอ : QLED
+DIGITAL TV BUILT IN (YES/NO) : YES
+SMART TV : TIZEN
+HDR FORMAT : Quantum HDR
+HDMI ( ช่อง ) : 3
+USB ( ช่อง ) : 2
+ประเภทรีโมท : ONE REMOTE
+ความลึก TV รวมขาตั้ง ( ซม .) : 19.91
+ความสูง TV รวมขาตั้ง ( ซม .) : 70.94
+วิธีใช้งาน
+ใช้สำหรับรับชมเพื่อความบันเทิง
+คำแนะนำ
+ถอดปลั๊กสายไฟออกจากเต้ารับไฟฟ้าที่ผนัง  และเช็ดผลิตภัณฑ์ด้วยผ้าแห้งและนุ่ม  เพื่อป้องกันรอยขูดขีด
+ศึกษาคู่มือการติดตั้ง  และวิธีการใช้งานอย่างละเอียด
+ข้อมูลการรับประกัน
+การรับประกัน ( ปี ) : 1
+ข้อมูลติดต่อศูนย์บริการ
+CALL CENTER 1282 บริษัท  ไทยซัมซุง  อิเลคโทรนิคส์  จำกัด  ศูนย์บริการเปิดให้บริการตั้งแต่วันจันทร์ถึงวันเสาร์ 9.00 17.00 น .</t>
+    </r>
+  </si>
+  <si>
+    <t>ข้อมูลสินค้าเพิ่มเติม
+-100% Color Volume Quantum Dot สีสวยสด 100%
+Quantum HDR เผยรายละเอียดที่ซ่อนอยุ่ในภาพ
+AirSlim ตัวเครื่องบาง สวยงาม ประหยัดพื้นที่
+Smart Hub คัดสรรคอนเทนต์บันเทิงรวมไว้ในที่เดียว 
+คุณสมบัติเฉพาะ
+แบรนด์ : SAMSUNG
+ซีรีส์ : Q65C
+ความสูง (ซม.) : 64.41
+ความกว้าง (ซม.) : 111.83
+ความลึก (ซม.) : 2.57
+น้ำหนัก (กก.) : 10.7
+ขนาดหน้าจอ (นิ้ว) : 50"
+ความละเอียดหน้าจอ : 4K (3,840 x 2,160) 
+ชนิดหน้าจอ : QLED
+DIGITAL TV BUILT IN (YES/NO) : YES
+SMART TV : TIZEN
+HDR FORMAT : Quantum HDR
+HDMI (ช่อง) : 3
+USB (ช่อง) : 2
+ประเภทรีโมท : ONE REMOTE
+ความลึก TV รวมขาตั้ง (ซม.) : 19.91
+ความสูง TV รวมขาตั้ง (ซม.) : 70.94
+วิธีใช้งาน
+ใช้สำหรับรับชมเพื่อความบันเทิง
+คำแนะนำ
+ถอดปลั๊กสายไฟออกจากเต้ารับไฟฟ้าที่ผนัง และเช็ดผลิตภัณฑ์ด้วยผ้าแห้งและนุ่ม เพื่อป้องกันรอยขูดขีด
+ศึกษาคู่มือการติดตั้ง และวิธีการใช้งานอย่างละเอียด
+ข้อมูลการรับประกัน
+การรับประกัน (ปี) : 1
+ข้อมูลติดต่อศูนย์บริการ
+CALL CENTER 1282 บริษัท ไทยซัมซุง อิเลคโทรนิคส์ จำกัด ศูนย์บริการเปิดให้บริการตั้งแต่วันจันทร์ถึงวันเสาร์ 9.00 17.00 น.</t>
   </si>
 </sst>
 </file>
@@ -517,9 +616,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -856,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BAE912-A59D-4C4C-917C-824EF22A1725}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,6 +1039,16 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
